--- a/optimized_portfolio_largecap.xlsx
+++ b/optimized_portfolio_largecap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meetv\OneDrive - Indian Institute of Technology Bombay\Desktop\PORTFOLIO MANAGMENT COMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61560A7C-8EFC-41CF-B542-C8B623EE3BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB993264-A8D7-46CB-B18A-21512205E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="4080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,11 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +870,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -915,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -959,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1179,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1927,7 +1926,7 @@
         <v>1654.9451787154176</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2015,7 +2014,7 @@
         <v>997.80462670140014</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>635.09941944041486</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>440.4960023696014</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>660.50014470009864</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>192.89686076674693</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>954.07034743575787</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>982.00864879951075</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -5447,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -5491,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>2755.6715626867208</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -6195,9 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H125">
         <f>COUNTIF(H5:H120,1)</f>
         <v>11</v>
@@ -6218,13 +6215,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D125" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="lessThanOrEqual" val="0.25"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6233,7 +6223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251EB102-F660-4EC3-BF59-D1D79AFCE473}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
